--- a/app/Licenciatura_em_Quimica.xlsx
+++ b/app/Licenciatura_em_Quimica.xlsx
@@ -25,18 +25,17 @@
     <sheet name="20154079" sheetId="15" r:id="rId18"/>
     <sheet name="20154091" sheetId="16" r:id="rId19"/>
     <sheet name="20154098" sheetId="17" r:id="rId20"/>
-    <sheet name="20154832" sheetId="18" r:id="rId21"/>
-    <sheet name="20154097" sheetId="19" r:id="rId22"/>
-    <sheet name="20154082" sheetId="20" r:id="rId23"/>
-    <sheet name="20154095" sheetId="21" r:id="rId24"/>
-    <sheet name="20154078" sheetId="22" r:id="rId25"/>
-    <sheet name="20154083" sheetId="23" r:id="rId26"/>
-    <sheet name="20154100" sheetId="24" r:id="rId27"/>
-    <sheet name="20154087" sheetId="25" r:id="rId28"/>
-    <sheet name="20154085" sheetId="26" r:id="rId29"/>
-    <sheet name="20154101" sheetId="27" r:id="rId30"/>
-    <sheet name="Sheet2" sheetId="28" r:id="rId31"/>
-    <sheet name="Sheet3" sheetId="29" r:id="rId32"/>
+    <sheet name="20154097" sheetId="18" r:id="rId21"/>
+    <sheet name="20154082" sheetId="19" r:id="rId22"/>
+    <sheet name="20154095" sheetId="20" r:id="rId23"/>
+    <sheet name="20154078" sheetId="21" r:id="rId24"/>
+    <sheet name="20154083" sheetId="22" r:id="rId25"/>
+    <sheet name="20154100" sheetId="23" r:id="rId26"/>
+    <sheet name="20154087" sheetId="24" r:id="rId27"/>
+    <sheet name="20154085" sheetId="25" r:id="rId28"/>
+    <sheet name="20154101" sheetId="26" r:id="rId29"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -193,9 +192,6 @@
     <t>Maria Das Dores F Savela</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -232,9 +228,6 @@
     <t>Rosalia Mota</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100402123I</t>
   </si>
   <si>
@@ -259,9 +252,6 @@
     <t>Victoria Gomondo Quive</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -310,9 +300,6 @@
     <t>Maria CÂndida Da Silva</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070100229077J</t>
   </si>
   <si>
@@ -361,9 +348,6 @@
     <t>CÉlia Vasco Chuma</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110502708376Q</t>
   </si>
   <si>
@@ -388,9 +372,6 @@
     <t>Nely Meidana Nhate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101150039N</t>
   </si>
   <si>
@@ -460,9 +441,6 @@
     <t xml:space="preserve">NatÁlia Paulo Mavunja </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>+258827369859</t>
   </si>
   <si>
@@ -505,9 +483,6 @@
     <t>Julieta Ernesto</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100276204I</t>
   </si>
   <si>
@@ -583,15 +558,6 @@
     <t>Escola Secundaria da Manga</t>
   </si>
   <si>
-    <t>Macuacua</t>
-  </si>
-  <si>
-    <t>Celso Aníbal</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Machava</t>
   </si>
   <si>
@@ -605,9 +571,6 @@
   </si>
   <si>
     <t>Albertina Matsinhe</t>
-  </si>
-  <si>
-    <t>Distrito de Manjacaze</t>
   </si>
   <si>
     <t>090900649440C</t>
@@ -2044,7 +2007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2060,7 +2023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2076,7 +2039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2092,7 +2055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2108,7 +2071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2123,9 +2086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2133,7 +2094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2144,7 +2105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2153,7 +2114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2165,7 +2126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2173,7 +2134,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2269,7 +2230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2312,7 +2273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2639,7 +2600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2655,7 +2616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2671,7 +2632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2687,7 +2648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2703,7 +2664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2718,9 +2679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2728,7 +2687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2739,7 +2698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2748,7 +2707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2760,7 +2719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2768,7 +2727,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2864,7 +2823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2907,7 +2866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3234,7 +3193,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3250,7 +3209,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3266,7 +3225,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3282,7 +3241,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3298,7 +3257,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3313,9 +3272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3323,7 +3280,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3334,7 +3291,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3343,7 +3300,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3355,7 +3312,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3459,7 +3416,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3502,7 +3459,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3829,7 +3786,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3845,7 +3802,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3861,7 +3818,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3877,7 +3834,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3893,7 +3850,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3908,9 +3865,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3918,7 +3873,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3929,7 +3884,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3938,7 +3893,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3950,7 +3905,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3958,7 +3913,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4054,7 +4009,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4097,7 +4052,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4424,7 +4379,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4440,7 +4395,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4456,7 +4411,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4472,7 +4427,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4488,7 +4443,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4503,9 +4458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4513,7 +4466,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4524,7 +4477,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4533,7 +4486,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4545,7 +4498,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4553,7 +4506,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4649,7 +4602,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4692,7 +4645,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5019,7 +4972,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5035,7 +4988,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5051,7 +5004,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5067,7 +5020,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5083,7 +5036,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5098,9 +5051,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5108,7 +5059,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5119,7 +5070,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5128,7 +5079,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5140,7 +5091,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5148,7 +5099,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5244,7 +5195,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5287,7 +5238,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5614,7 +5565,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5630,7 +5581,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5646,7 +5597,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5662,7 +5613,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5678,7 +5629,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5693,9 +5644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5703,7 +5652,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5714,7 +5663,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5723,7 +5672,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5735,7 +5684,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5743,7 +5692,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5839,7 +5788,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5882,7 +5831,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6209,7 +6158,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6225,7 +6174,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6241,7 +6190,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6257,7 +6206,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6273,7 +6222,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6288,9 +6237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6298,7 +6245,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6309,7 +6256,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6318,7 +6265,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6330,7 +6277,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6338,7 +6285,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6434,7 +6381,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6477,7 +6424,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6728,7 +6675,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6778,7 +6727,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154832</v>
+        <v>20154097</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6802,7 +6751,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6818,7 +6767,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6833,7 +6782,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>173</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6847,7 +6798,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6861,7 +6814,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6882,7 +6837,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6891,14 +6848,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6908,13 +6869,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7009,7 +6974,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7035,7 +7000,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7049,7 +7016,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7351,7 +7320,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154097</v>
+        <v>20154082</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7375,7 +7344,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7391,7 +7360,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7407,7 +7376,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7423,7 +7392,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7439,7 +7408,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7454,9 +7423,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7464,7 +7431,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7475,7 +7442,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7484,7 +7451,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7496,7 +7463,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7504,7 +7471,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7600,7 +7567,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7643,7 +7610,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8049,9 +8016,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8059,7 +8024,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8070,7 +8035,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8079,7 +8044,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8091,7 +8056,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8099,7 +8064,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8195,7 +8160,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8238,7 +8203,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8541,7 +8506,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154082</v>
+        <v>20154095</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8565,7 +8530,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8581,7 +8546,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8597,7 +8562,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8613,7 +8578,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8629,7 +8594,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8644,9 +8609,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8654,7 +8617,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8665,7 +8628,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8674,7 +8637,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8686,7 +8649,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8694,7 +8657,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8790,7 +8753,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8833,7 +8796,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9136,7 +9099,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154095</v>
+        <v>20154078</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9160,7 +9123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9176,7 +9139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9192,7 +9155,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9208,7 +9171,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9224,7 +9187,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9239,9 +9202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9249,7 +9210,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9260,7 +9221,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9269,7 +9230,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9281,7 +9242,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9289,7 +9250,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9385,7 +9346,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9428,7 +9389,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9731,7 +9692,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154078</v>
+        <v>20154083</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9755,7 +9716,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9771,7 +9732,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9787,7 +9748,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9803,7 +9764,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9819,7 +9780,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9834,9 +9795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9844,7 +9803,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9855,7 +9814,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9864,7 +9823,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9876,7 +9835,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9884,7 +9843,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9980,7 +9939,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10007,7 +9966,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10023,7 +9982,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10326,7 +10285,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154083</v>
+        <v>20154100</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10350,7 +10309,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10366,7 +10325,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10382,7 +10341,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10398,7 +10357,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10414,7 +10373,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10429,9 +10388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>153</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10439,7 +10396,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10450,7 +10407,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10459,7 +10416,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10471,7 +10428,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10479,7 +10436,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10575,7 +10532,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10602,7 +10559,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10618,7 +10575,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10921,7 +10878,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154100</v>
+        <v>20154087</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10945,7 +10902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10961,7 +10918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10977,7 +10934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10993,7 +10950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11009,7 +10966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11024,9 +10981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11034,7 +10989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11045,7 +11000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11054,7 +11009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11066,7 +11021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11074,7 +11029,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11170,7 +11125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11197,7 +11152,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11213,7 +11168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11516,7 +11471,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154087</v>
+        <v>20154085</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11540,7 +11495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11556,7 +11511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11572,7 +11527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11588,7 +11543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11604,7 +11559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11619,9 +11574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11629,7 +11582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11640,7 +11593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11649,7 +11602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11661,7 +11614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11669,7 +11622,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11765,7 +11718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11808,7 +11761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12111,7 +12064,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154085</v>
+        <v>20154101</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12135,7 +12088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12151,7 +12104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12167,7 +12120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12183,7 +12136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12199,7 +12152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12214,9 +12167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12224,7 +12175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12235,7 +12186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12244,7 +12195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12256,7 +12207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12264,7 +12215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12360,7 +12311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12387,7 +12338,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12403,7 +12354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12606,601 +12557,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154101</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -13224,7 +12580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13381,7 +12737,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13397,7 +12753,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13413,7 +12769,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13429,7 +12785,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13445,7 +12801,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13460,9 +12816,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13470,7 +12824,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13481,7 +12835,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13490,7 +12844,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13502,7 +12856,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13510,7 +12864,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13606,7 +12960,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13649,7 +13003,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13976,7 +13330,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13992,7 +13346,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14008,7 +13362,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14024,7 +13378,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14040,7 +13394,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14055,9 +13409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14065,7 +13417,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14076,7 +13428,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14085,7 +13437,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14097,7 +13449,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14201,7 +13553,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14244,7 +13596,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14571,7 +13923,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14587,7 +13939,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14603,7 +13955,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14619,7 +13971,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14635,7 +13987,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14650,9 +14002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14660,7 +14010,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14671,7 +14021,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14680,7 +14030,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14692,7 +14042,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14700,7 +14050,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14796,7 +14146,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14839,7 +14189,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15166,7 +14516,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15182,7 +14532,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15198,7 +14548,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15214,7 +14564,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15230,7 +14580,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15245,9 +14595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15255,7 +14603,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15266,7 +14614,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15275,7 +14623,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15287,7 +14635,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15295,7 +14643,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15391,7 +14739,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15434,7 +14782,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15761,7 +15109,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15777,7 +15125,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15793,7 +15141,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15809,7 +15157,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15825,7 +15173,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15840,9 +15188,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15850,7 +15196,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15861,7 +15207,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15870,7 +15216,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15882,7 +15228,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15890,7 +15236,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15986,7 +15332,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16029,7 +15375,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16356,7 +15702,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16372,7 +15718,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16388,7 +15734,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16404,7 +15750,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16420,7 +15766,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16435,9 +15781,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16445,7 +15789,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16456,7 +15800,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16465,7 +15809,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16477,7 +15821,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16485,7 +15829,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16581,7 +15925,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16624,7 +15968,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16951,7 +16295,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16967,7 +16311,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16983,7 +16327,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16999,7 +16343,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17015,7 +16359,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17030,9 +16374,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17040,7 +16382,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17051,7 +16393,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17060,7 +16402,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17072,7 +16414,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17080,7 +16422,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17176,7 +16518,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17219,7 +16561,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
